--- a/CASUAL/LA TICC/RODRIGUEZ, JOSEPHINE.xlsx
+++ b/CASUAL/LA TICC/RODRIGUEZ, JOSEPHINE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -324,6 +324,21 @@
   </si>
   <si>
     <t>UT(0-4-5)</t>
+  </si>
+  <si>
+    <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>UT(0-0-3)</t>
+  </si>
+  <si>
+    <t>UT(0-0-5)</t>
+  </si>
+  <si>
+    <t>UT(0-5-44)</t>
+  </si>
+  <si>
+    <t>UT(0-4-1)</t>
   </si>
 </sst>
 </file>
@@ -707,17 +722,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -727,6 +739,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1617,9 +1632,9 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="I6" sqref="I6"/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,14 +1664,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1667,16 +1682,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>35947</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1689,14 +1704,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1722,18 +1737,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1780,7 +1795,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>63.227999999999994</v>
+        <v>58.238999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1790,7 +1805,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>88.75</v>
+        <v>90</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2943,11 +2958,15 @@
       <c r="A66" s="41">
         <v>44652</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="40"/>
+      <c r="D66" s="40">
+        <v>0.502</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -2963,11 +2982,15 @@
       <c r="A67" s="41">
         <v>44682</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="40"/>
+      <c r="D67" s="40">
+        <v>0.71699999999999997</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -2983,11 +3006,15 @@
       <c r="A68" s="41">
         <v>44713</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C68" s="13">
         <v>1.25</v>
       </c>
-      <c r="D68" s="40"/>
+      <c r="D68" s="40">
+        <v>0.01</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
@@ -3043,11 +3070,15 @@
       <c r="A71" s="41">
         <v>44805</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="40"/>
+      <c r="D71" s="40">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
@@ -3063,11 +3094,15 @@
       <c r="A72" s="41">
         <v>44835</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="40"/>
+      <c r="D72" s="40">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -3393,14 +3428,20 @@
       <c r="A88" s="41">
         <v>45261</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="40"/>
+      <c r="B88" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D88" s="40">
+        <v>5</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="40"/>
       <c r="I88" s="9"/>
@@ -3751,17 +3792,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3829,14 +3870,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3847,16 +3888,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>35947</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3869,16 +3910,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3904,18 +3945,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5470,11 +5511,11 @@
         <v>4</v>
       </c>
       <c r="F3" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="46">
         <f>SUM(D3,E4,F4)</f>
-        <v>0.51</v>
+        <v>0.502</v>
       </c>
       <c r="J3" s="35"/>
       <c r="K3" s="36">
@@ -5493,7 +5534,7 @@
       </c>
       <c r="F4" s="1">
         <f>IF(F3=0,0,IF(ISBLANK(F3),"",VLOOKUP(F3,C7:D66,2)))</f>
-        <v>0.01</v>
+        <v>2E-3</v>
       </c>
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
@@ -5530,7 +5571,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>151.97800000000001</v>
+        <v>148.239</v>
       </c>
       <c r="C7" s="38">
         <v>1</v>

--- a/CASUAL/LA TICC/RODRIGUEZ, JOSEPHINE.xlsx
+++ b/CASUAL/LA TICC/RODRIGUEZ, JOSEPHINE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1632,9 +1632,9 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection activeCell="I6" sqref="I6"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+      <pane ySplit="3690" topLeftCell="A76" activePane="bottomLeft"/>
+      <selection activeCell="P9" sqref="P9"/>
+      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1795,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>58.238999999999997</v>
+        <v>59.488999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1805,7 +1805,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>90</v>
+        <v>90.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3470,25 +3470,35 @@
       <c r="A90" s="41">
         <v>45292</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="B90" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="40"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H90" s="40"/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H90" s="40">
+        <v>1</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="48">
+        <v>45324</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41">
         <v>45323</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="40"/>
       <c r="E91" s="9"/>
@@ -3500,7 +3510,9 @@
       <c r="H91" s="40"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="48">
+        <v>45345</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41">
@@ -3647,7 +3659,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="41"/>
+      <c r="A100" s="41">
+        <v>45597</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="40"/>
@@ -3663,7 +3677,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
+      <c r="A101" s="41">
+        <v>45627</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="40"/>
@@ -5571,7 +5587,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>148.239</v>
+        <v>149.739</v>
       </c>
       <c r="C7" s="38">
         <v>1</v>
